--- a/src/test/java/TestData/BasicTestsData/JavaScriptAlertsData.xlsx
+++ b/src/test/java/TestData/BasicTestsData/JavaScriptAlertsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\SeleniumEasyFramework_Project\src\test\java\TestData\BasicTestsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2148C181-7240-46F6-8E15-B8124A5F5DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0BFD06-848E-4685-BB75-9FBB71363BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2295" windowWidth="21645" windowHeight="11385" tabRatio="758" activeTab="3" xr2:uid="{4F2FD375-1796-491F-AA42-EE0C45CB06C7}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21645" windowHeight="11385" tabRatio="758" activeTab="3" xr2:uid="{4F2FD375-1796-491F-AA42-EE0C45CB06C7}"/>
   </bookViews>
   <sheets>
     <sheet name="alertBoxClickData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>expected</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>You have entered 'Wiktor' !</t>
+  </si>
+  <si>
+    <t>Failed for Raport Purpoose</t>
+  </si>
+  <si>
+    <t>Faile</t>
   </si>
 </sst>
 </file>
@@ -436,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C883876-507C-4110-9302-111CBCDDBE4F}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -455,6 +461,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -534,10 +545,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F4A449-8141-40BF-BB85-A1BECE78B8A5}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,6 +601,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
